--- a/(3) Diagnostic of Transformed Data.xlsx
+++ b/(3) Diagnostic of Transformed Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackh\OneDrive\Documents\GitHub\Project-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackh\OneDrive\Documents\GitHub\Project-1\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{435AA443-B1CF-4239-BA51-27374566EC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5CA7F-5CF2-4FF5-9303-9932D60632FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16776" xr2:uid="{570A10A8-9F99-47ED-B2D6-B6BFA2AA47D6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{570A10A8-9F99-47ED-B2D6-B6BFA2AA47D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>0.254</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>-2.35E-2</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">

--- a/(3) Diagnostic of Transformed Data.xlsx
+++ b/(3) Diagnostic of Transformed Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackh\OneDrive\Documents\GitHub\Project-1\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF5CA7F-5CF2-4FF5-9303-9932D60632FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2A45D-8C16-49DB-8A54-CAC82CC532B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{570A10A8-9F99-47ED-B2D6-B6BFA2AA47D6}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/(3) Diagnostic of Transformed Data.xlsx
+++ b/(3) Diagnostic of Transformed Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackh\OneDrive\Documents\GitHub\Project-1\Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A2A45D-8C16-49DB-8A54-CAC82CC532B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F5C9C6-4937-4593-82BD-F3754FC1E157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{570A10A8-9F99-47ED-B2D6-B6BFA2AA47D6}"/>
+    <workbookView xWindow="2508" yWindow="1416" windowWidth="13476" windowHeight="12120" xr2:uid="{570A10A8-9F99-47ED-B2D6-B6BFA2AA47D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Diagnostic of Transformed Outcome Data</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>R^2</t>
+  </si>
+  <si>
+    <t>log-log</t>
   </si>
 </sst>
 </file>
@@ -108,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -136,17 +139,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,226 +487,275 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442D76D-415D-4F4C-B878-BEC6A2E5591A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" ht="21.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>1.24</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>0.26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>0.45300000000000001</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>0.53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>0.29899999999999999</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>-0.11</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>0.52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C8" s="10">
         <v>1.77</v>
       </c>
-      <c r="D7">
+      <c r="D8" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C9" s="5">
         <v>0.23</v>
       </c>
-      <c r="D8">
+      <c r="D9" s="5">
         <v>0.12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C10" s="5">
         <v>0.254</v>
       </c>
-      <c r="D9">
+      <c r="D10" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="5">
         <v>-2.35E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="5">
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1.88</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C13" s="10">
         <v>0.33400000000000002</v>
       </c>
-      <c r="D11">
+      <c r="D13" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
+      <c r="C14" s="5">
         <v>0.29599999999999999</v>
       </c>
-      <c r="D12">
+      <c r="D14" s="5">
         <v>0.59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
+      <c r="C15" s="5">
         <v>0.13</v>
       </c>
-      <c r="D13">
+      <c r="D15" s="5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="3" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C16" s="5">
         <v>-0.13300000000000001</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D16" s="5">
         <v>0.65</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C18" s="10">
         <v>2.87</v>
       </c>
-      <c r="D15">
+      <c r="D18" s="10">
         <v>0.63</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C16">
+      <c r="C19" s="5">
         <v>0.46500000000000002</v>
       </c>
-      <c r="D16">
+      <c r="D19" s="5">
         <v>0.79</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C20" s="5">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D17">
+      <c r="D20" s="5">
         <v>0.74</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C21" s="5">
         <v>-8.2600000000000007E-2</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D21" s="5">
         <v>0.59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="8">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
